--- a/doku/RC-Sound_Modul.xlsx
+++ b/doku/RC-Sound_Modul.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\-=VE_2019=-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\GitHub\RC-Sound_Modul\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FE6E5E-7145-4F66-8AB7-79FAC8A189A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>D</t>
   </si>
@@ -64,11 +65,14 @@
   <si>
     <t>Drehzahl</t>
   </si>
+  <si>
+    <t>SD-Card</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -255,11 +259,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,24 +299,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -311,15 +310,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,228 +635,236 @@
   <sheetData>
     <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="23" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="23" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="2:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="3">
         <v>4</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="17"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="16"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:17" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,7 +872,8 @@
     <row r="16" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="D5:D7"/>
